--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lrrc4b-Ptprs.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lrrc4b-Ptprs.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.563330103128635</v>
+        <v>0.5823119999999999</v>
       </c>
       <c r="H2">
-        <v>0.563330103128635</v>
+        <v>1.746936</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.49044135592188</v>
+        <v>3.090355666666666</v>
       </c>
       <c r="N2">
-        <v>2.49044135592188</v>
+        <v>9.271066999999999</v>
       </c>
       <c r="O2">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="P2">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="Q2">
-        <v>1.40294058586729</v>
+        <v>1.799551188967999</v>
       </c>
       <c r="R2">
-        <v>1.40294058586729</v>
+        <v>16.195960700712</v>
       </c>
       <c r="S2">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="T2">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.563330103128635</v>
+        <v>0.5823119999999999</v>
       </c>
       <c r="H3">
-        <v>0.563330103128635</v>
+        <v>1.746936</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.8326743963801</v>
+        <v>25.17096033333333</v>
       </c>
       <c r="N3">
-        <v>24.8326743963801</v>
+        <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338453</v>
       </c>
       <c r="P3">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338454</v>
       </c>
       <c r="Q3">
-        <v>13.98899302867262</v>
+        <v>14.657352253624</v>
       </c>
       <c r="R3">
-        <v>13.98899302867262</v>
+        <v>131.916170282616</v>
       </c>
       <c r="S3">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338453</v>
       </c>
       <c r="T3">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.563330103128635</v>
+        <v>0.5823119999999999</v>
       </c>
       <c r="H4">
-        <v>0.563330103128635</v>
+        <v>1.746936</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2182004575563</v>
+        <v>16.34167533333333</v>
       </c>
       <c r="N4">
-        <v>15.2182004575563</v>
+        <v>49.025026</v>
       </c>
       <c r="O4">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="P4">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="Q4">
-        <v>8.572870433187431</v>
+        <v>9.515953646703998</v>
       </c>
       <c r="R4">
-        <v>8.572870433187431</v>
+        <v>85.64358282033598</v>
       </c>
       <c r="S4">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="T4">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
     </row>
   </sheetData>
